--- a/MLI_Harmonization.xlsx
+++ b/MLI_Harmonization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\mtn\ENSAE\ISE\ISEP3\Semestre 1\stat_exploratoire\2023\TP 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\ISEP 3\Statistique exploratoire spatiale\Projet_1\Data\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6386CEC-AD0C-418C-9121-DC2DDB995EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2256579-DC96-4B08-A937-9727C36C3544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2C68F1E4-383B-48C9-A01B-4DF8419EC750}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{2C68F1E4-383B-48C9-A01B-4DF8419EC750}"/>
   </bookViews>
   <sheets>
     <sheet name="variables_harmonization" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="383">
   <si>
     <t>SvyDatePDM</t>
   </si>
@@ -691,21 +691,360 @@
     <t>1_MALI data_hh_pdm2_bnf_res.sav</t>
   </si>
   <si>
+    <t>consentement_reponse</t>
+  </si>
+  <si>
+    <t>consentidentificationregion</t>
+  </si>
+  <si>
+    <t>consentidentificationcercle</t>
+  </si>
+  <si>
+    <t>consentidentificationcommune</t>
+  </si>
+  <si>
+    <t>ID11_date_enquete</t>
+  </si>
+  <si>
+    <t>COM1COM1_enfant_0_5_mois_masculin</t>
+  </si>
+  <si>
+    <t>COM1_enfant_0_5_mois_feminin</t>
+  </si>
+  <si>
+    <t>COM2_enfant_6_23_mois_masculin</t>
+  </si>
+  <si>
+    <t>COM2_enfant_6_23_mois_feminin</t>
+  </si>
+  <si>
+    <t>COM3_enfant_24_59_mois_masculin</t>
+  </si>
+  <si>
+    <t>COM3_enfant_24_59_mois_feminin</t>
+  </si>
+  <si>
+    <t>COM6_taille_menage</t>
+  </si>
+  <si>
+    <t>COM11_sexe_chef_menage</t>
+  </si>
+  <si>
+    <t>COM12_statut_matrimonial_chef_menage</t>
+  </si>
+  <si>
+    <t>COM14_niveau_instruction_chef_menage</t>
+  </si>
+  <si>
+    <t>COM15_preciser_activite_principale_ch</t>
+  </si>
+  <si>
+    <t>EE1_enfant_5_14_ans_filles</t>
+  </si>
+  <si>
+    <t>EE1_enfant_5_14_ans_garcons</t>
+  </si>
+  <si>
+    <t>Score_conso_alimcerealeSCA_1_consom_dernier7_jours_cereal</t>
+  </si>
+  <si>
+    <t>Score_conso_alimSCA_1_sourc_aliment_consom_cereal</t>
+  </si>
+  <si>
+    <t>Score_conso_alimlegumineuses_noixSCA_3_consom_dernier7_jo</t>
+  </si>
+  <si>
+    <t>Score_conso_alimSCA_3_sourc_aliment_consom_noix</t>
+  </si>
+  <si>
+    <t>Score_conso_alimlait_autres_laitSCA_4_consom_dernier7_jou</t>
+  </si>
+  <si>
+    <t>Score_conso_alimSCA_4_sourc_aliment_consom_lait</t>
+  </si>
+  <si>
+    <t>Score_conso_alimviande_poisson_oeufSCA_5_consom_dernier7</t>
+  </si>
+  <si>
+    <t>Score_conso_alimSCA_5_sourc_aliment_consom_viande</t>
+  </si>
+  <si>
+    <t>Score_conso_alimviandeSCA_51_consom_dernier7_jours_viand</t>
+  </si>
+  <si>
+    <t>Score_conso_alimfoie_rognonSCA_52_consom_dernier7_jours_f</t>
+  </si>
+  <si>
+    <t>Score_conso_alimpoisson_eau_douce_merSCA_53_consom_dernie</t>
+  </si>
+  <si>
+    <t>Score_conso_alimoeufsSCA_54_consom_dernier7_jours_oeufs</t>
+  </si>
+  <si>
+    <t>Score_conso_alimlegumes_feuillesSCA_6_consom_dernier7_jou</t>
+  </si>
+  <si>
+    <t>Score_conso_alimSCA_6_sourc_aliment_consom_legume</t>
+  </si>
+  <si>
+    <t>Score_conso_alimlegumes_couleur_orangeSCA_61_consom_derni</t>
+  </si>
+  <si>
+    <t>Score_conso_alimlegumes_feuille_verteSCA_62_consom_dernie</t>
+  </si>
+  <si>
+    <t>Score_conso_alimSCA_7_fruitsSCA_7_consom_dernier7_jours_f</t>
+  </si>
+  <si>
+    <t>Score_conso_alimSCA_7_sourc_aliment_consom_fruit</t>
+  </si>
+  <si>
+    <t>Score_conso_alimSCA_71_fruitsSCA_71_consom_dernier7_jours</t>
+  </si>
+  <si>
+    <t>Score_conso_alimSCA_8_huile_gras_beurreSCA_8_consom_derni</t>
+  </si>
+  <si>
+    <t>Score_conso_alimSCA_8_sourc_aliment_consom_huile</t>
+  </si>
+  <si>
+    <t>Score_conso_alimSCA_9_sucre_produit_sucreSCA_9_consom_der</t>
+  </si>
+  <si>
+    <t>Score_conso_alimSCA_9_sourc_aliment_consom_sucre</t>
+  </si>
+  <si>
+    <t>Score_conso_alimSCA_10_epice_condimentSCA_10_consom_derni</t>
+  </si>
+  <si>
+    <t>Score_conso_alimSCA_10_sourc_aliment_consom_epice</t>
+  </si>
+  <si>
+    <t>Strategie_adaptation_alimentairestrategies_alimentairesCS</t>
+  </si>
+  <si>
+    <t>Strategie_adaptation_alimentairestrategies_alimentaires_A</t>
+  </si>
+  <si>
+    <t>Strategie_adaptation_alimentairestrategies_alimentaires_B</t>
+  </si>
+  <si>
+    <t>Strategie_adaptation_alimentairestrategies_alimentaires_C</t>
+  </si>
+  <si>
+    <t>Strategie_adaptation_alimentairestrategies_alimentaires_D</t>
+  </si>
+  <si>
+    <t>SAN1_strategie_adap_A</t>
+  </si>
+  <si>
+    <t>SAN1_strategie_adap_B</t>
+  </si>
+  <si>
+    <t>SAN1_strategie_adap_C</t>
+  </si>
+  <si>
+    <t>SAN1_strategie_adap_E</t>
+  </si>
+  <si>
+    <t>SAN1_strategie_adap_H</t>
+  </si>
+  <si>
+    <t>SAN1_strategie_adap_I</t>
+  </si>
+  <si>
+    <t>SAN1_strategie_adap_J</t>
+  </si>
+  <si>
+    <t>SAN1_strategie_adap_K</t>
+  </si>
+  <si>
+    <t>SAN1_strategie_adap_Q</t>
+  </si>
+  <si>
+    <t>Impact_actifIAPIAP3_actifs_protege_menage</t>
+  </si>
+  <si>
+    <t>Impact_actifIAPIAP4_actifs_augmente_diversifie_production</t>
+  </si>
+  <si>
+    <t>Impact_actifIAPIAP5_actif_diminue_souffrance</t>
+  </si>
+  <si>
+    <t>Impact_actifIAPIAP6_actif_ameliore_acces_marche</t>
+  </si>
+  <si>
+    <t>Impact_actifIAPIAP7_aptitude_gerer_actifs</t>
+  </si>
+  <si>
+    <t>Impact_actifIAPIAP8_actif_ameliore_environnement</t>
+  </si>
+  <si>
+    <t>Impact_actifIAPIAP9_travaux_ameliore_acces_actif</t>
+  </si>
+  <si>
+    <t>Const_phone_ID12_gps_latitude</t>
+  </si>
+  <si>
+    <t>Const_phone_ID12_gps_longitude</t>
+  </si>
+  <si>
+    <t>@_id</t>
+  </si>
+  <si>
+    <t>EX1_exode_migration</t>
+  </si>
+  <si>
+    <t>EX7_destination</t>
+  </si>
+  <si>
     <t>Identifiant</t>
   </si>
   <si>
+    <t>SubmissionDate</t>
+  </si>
+  <si>
+    <t>q4_5_consentement_reponse</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>cercle</t>
+  </si>
+  <si>
+    <t>commune</t>
+  </si>
+  <si>
+    <t>q3_1_gpsLongitude</t>
+  </si>
+  <si>
+    <t>q3_1_gpsLatitude</t>
+  </si>
+  <si>
+    <t>q5_2_age_repondant</t>
+  </si>
+  <si>
+    <t>q5_1_sexe_repondant</t>
+  </si>
+  <si>
+    <t>q5_3_vous_chef_menage</t>
+  </si>
+  <si>
+    <t>q5_4_sexe_chef_menage</t>
+  </si>
+  <si>
+    <t>q5_8_niveau_instruction_chef_menage</t>
+  </si>
+  <si>
+    <t>q5_10_activite_principale_chef_menage</t>
+  </si>
+  <si>
+    <t>q5_6_statut_matrimonial_chef_menage</t>
+  </si>
+  <si>
+    <t>q5_16_taille_menage</t>
+  </si>
+  <si>
+    <t>q16_1_a_garcon023</t>
+  </si>
+  <si>
+    <t>q16_2_a_garcon2459</t>
+  </si>
+  <si>
+    <t>q16_3_a_garcon0514</t>
+  </si>
+  <si>
+    <t>q16_4_a_hommes1549</t>
+  </si>
+  <si>
+    <t>q16_5_a_hommes5064</t>
+  </si>
+  <si>
+    <t>q16_6_a_hommes65plus</t>
+  </si>
+  <si>
+    <t>q16_1_b_filles023</t>
+  </si>
+  <si>
+    <t>q16_2_b_filles2459</t>
+  </si>
+  <si>
+    <t>q16_3_b_filles0514</t>
+  </si>
+  <si>
+    <t>q16_4_b_femmes1549</t>
+  </si>
+  <si>
+    <t>q16_5_b_femmes5064</t>
+  </si>
+  <si>
+    <t>q16_6_b_femmes65plus</t>
+  </si>
+  <si>
+    <t>LhCSIDomAsset</t>
+  </si>
+  <si>
+    <t>LhCSIAnimals</t>
+  </si>
+  <si>
+    <t>LhCSISaving</t>
+  </si>
+  <si>
+    <t>LhCSIBorrowCash</t>
+  </si>
+  <si>
+    <t>LhCSIHealth</t>
+  </si>
+  <si>
+    <t>LhCSIProdAsset</t>
+  </si>
+  <si>
+    <t>LhCSIOutSchool</t>
+  </si>
+  <si>
+    <t>LhCSIBegged</t>
+  </si>
+  <si>
+    <t>LhCSIFemAnimal</t>
+  </si>
+  <si>
+    <t>q7_11_ecole_cantine</t>
+  </si>
+  <si>
+    <t>IAP2_creation_actif</t>
+  </si>
+  <si>
+    <t>IAP3_actifs_protege_menage</t>
+  </si>
+  <si>
+    <t>IAP4_actifs_augmente_diversifie_production</t>
+  </si>
+  <si>
+    <t>IAP5_actif_diminue_souffrance</t>
+  </si>
+  <si>
+    <t>IAP6_actif_ameliore_acces_marche</t>
+  </si>
+  <si>
+    <t>IAP7_aptitude_gerer_actifs</t>
+  </si>
+  <si>
+    <t>IAP8_actif_ameliore_environnement</t>
+  </si>
+  <si>
+    <t>survey_date</t>
+  </si>
+  <si>
     <t>ctrl_declaration_consent</t>
   </si>
   <si>
-    <t>survey_date</t>
+    <t>q1b_5_coord_site_longitude</t>
   </si>
   <si>
     <t>q1b_5_coord_site_latitude</t>
   </si>
   <si>
-    <t>q1b_5_coord_site_longitude</t>
-  </si>
-  <si>
     <t xml:space="preserve">pr_lien_parente </t>
   </si>
   <si>
@@ -736,24 +1075,24 @@
     <t>nb_enf_24_59mois_fem</t>
   </si>
   <si>
+    <t>HHSize1549F</t>
+  </si>
+  <si>
     <t>nb_per_50_64ans_fem</t>
   </si>
   <si>
     <t>nb_per_65ans_plus_fem</t>
   </si>
   <si>
-    <t>HHSize1549F</t>
-  </si>
-  <si>
     <t xml:space="preserve">FCSStap </t>
   </si>
   <si>
+    <t xml:space="preserve">RaisonHausseMigration   </t>
+  </si>
+  <si>
     <t>RaisonBaisseMigration</t>
   </si>
   <si>
-    <t xml:space="preserve">RaisonHausseMigration   </t>
-  </si>
-  <si>
     <t xml:space="preserve">SCIPersAiderDehorsCom </t>
   </si>
   <si>
@@ -761,13 +1100,94 @@
   </si>
   <si>
     <t xml:space="preserve">SCIConMembreNGO </t>
+  </si>
+  <si>
+    <t>q1_2</t>
+  </si>
+  <si>
+    <t>@_q1b_5_coord_site_longitude</t>
+  </si>
+  <si>
+    <t>@_q1b_5_coord_site_latitude</t>
+  </si>
+  <si>
+    <t>q4_7_2</t>
+  </si>
+  <si>
+    <t>q4_7_1</t>
+  </si>
+  <si>
+    <t>q4_7_4</t>
+  </si>
+  <si>
+    <t>q4_8</t>
+  </si>
+  <si>
+    <t>q4_8_1</t>
+  </si>
+  <si>
+    <t>q4_8_3</t>
+  </si>
+  <si>
+    <t>q4_8_2</t>
+  </si>
+  <si>
+    <t>srm_3_1_</t>
+  </si>
+  <si>
+    <t>FCSFrizRf</t>
+  </si>
+  <si>
+    <t>RaisonHausseMigration</t>
+  </si>
+  <si>
+    <t>SCIPersAiderDehorsCom</t>
+  </si>
+  <si>
+    <t>SCICapAideGvnmt</t>
+  </si>
+  <si>
+    <t>SCIConMembreNGO</t>
+  </si>
+  <si>
+    <t>q11_2_1_nombre_choc</t>
+  </si>
+  <si>
+    <t>EX2_1_migration_homme</t>
+  </si>
+  <si>
+    <t>EX6_1_premiere_raison_exode_migration</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>q1b_5_coord_site_precision</t>
+  </si>
+  <si>
+    <t>q1b_5_coord_site_altitude</t>
+  </si>
+  <si>
+    <t>q4_2_2</t>
+  </si>
+  <si>
+    <t>q4_2_1</t>
+  </si>
+  <si>
+    <t>q4_8_4</t>
+  </si>
+  <si>
+    <t>srm_1_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -775,19 +1195,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -802,13 +1247,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1123,1261 +1580,2559 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CE1C33-2F6D-4CA9-9939-B69B266A9645}">
-  <dimension ref="A1:K205"/>
+  <dimension ref="A1:H205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I141" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M148" sqref="M148"/>
+      <selection pane="bottomRight" activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.90625" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="25.453125" customWidth="1"/>
+    <col min="5" max="5" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="36.81640625" customWidth="1"/>
+    <col min="8" max="8" width="21.90625" customWidth="1"/>
+    <col min="9" max="9" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>205</v>
       </c>
+      <c r="B1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" t="s">
+        <v>208</v>
+      </c>
       <c r="D1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="J2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="H2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="H3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="H4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="J5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="H5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="J6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="H6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="J7" t="s">
+      <c r="B7" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="H7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="J8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="H8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="J9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>283</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="H9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>196</v>
       </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F10" s="8"/>
+      <c r="G10" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>197</v>
       </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F11" s="8"/>
+      <c r="G11" s="11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E12" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E13" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>199</v>
       </c>
-      <c r="J14" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E14" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="H14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>231</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F16" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>234</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F20" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>198</v>
       </c>
-      <c r="J21" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>230</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="H21" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
-      <c r="J22" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>224</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="H22" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="J23" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="H23" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="J24" t="s">
+      <c r="B24" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E24" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="H24" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>236</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E26" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>12</v>
       </c>
-      <c r="J27" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E27" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>13</v>
       </c>
-      <c r="J28" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E28" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>17</v>
       </c>
-      <c r="J29" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>225</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="H29" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>18</v>
       </c>
-      <c r="J30" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>227</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="H30" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>21</v>
       </c>
-      <c r="J31" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>229</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="H31" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>235</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>23</v>
       </c>
-      <c r="J33" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E33" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="9"/>
+      <c r="H33" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>19</v>
       </c>
-      <c r="J34" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E34" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>20</v>
       </c>
-      <c r="J35" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E35" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>24</v>
       </c>
-      <c r="J36" t="s">
+      <c r="B36" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>25</v>
       </c>
-      <c r="J37" t="s">
+      <c r="B37" t="s">
+        <v>238</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>26</v>
       </c>
-      <c r="J38" t="s">
+      <c r="B38" t="s">
+        <v>239</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F38" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>27</v>
       </c>
-      <c r="J39" t="s">
+      <c r="B39" t="s">
+        <v>240</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F39" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>28</v>
       </c>
-      <c r="J40" t="s">
+      <c r="B40" t="s">
+        <v>241</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F40" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>29</v>
       </c>
-      <c r="J41" t="s">
+      <c r="B41" t="s">
+        <v>242</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>30</v>
       </c>
-      <c r="J42" t="s">
+      <c r="B42" t="s">
+        <v>243</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F42" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>31</v>
       </c>
-      <c r="J43" t="s">
+      <c r="B43" t="s">
+        <v>244</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F43" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>32</v>
       </c>
-      <c r="J44" t="s">
+      <c r="B44" t="s">
+        <v>245</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>33</v>
       </c>
-      <c r="J45" t="s">
+      <c r="B45" t="s">
+        <v>246</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>34</v>
       </c>
-      <c r="J46" t="s">
+      <c r="B46" t="s">
+        <v>247</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F46" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>35</v>
       </c>
-      <c r="J47" t="s">
+      <c r="B47" t="s">
+        <v>248</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F47" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>36</v>
       </c>
-      <c r="J48" t="s">
+      <c r="B48" t="s">
+        <v>249</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>37</v>
       </c>
-      <c r="J49" t="s">
+      <c r="B49" t="s">
+        <v>250</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F49" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>38</v>
       </c>
-      <c r="J50" t="s">
+      <c r="B50" t="s">
+        <v>251</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F50" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>39</v>
       </c>
-      <c r="J51" t="s">
+      <c r="B51" t="s">
+        <v>252</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F51" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>40</v>
       </c>
-      <c r="J52" t="s">
+      <c r="B52" t="s">
+        <v>253</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F52" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>41</v>
       </c>
-      <c r="J53" t="s">
+      <c r="B53" t="s">
+        <v>254</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F53" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>42</v>
       </c>
-      <c r="J54" t="s">
+      <c r="B54" t="s">
+        <v>255</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F54" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>43</v>
       </c>
-      <c r="J55" t="s">
+      <c r="B55" t="s">
+        <v>256</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F55" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>44</v>
       </c>
-      <c r="J56" t="s">
+      <c r="B56" t="s">
+        <v>257</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F56" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>45</v>
       </c>
-      <c r="J57" t="s">
+      <c r="B57" t="s">
+        <v>258</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F57" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>46</v>
       </c>
-      <c r="J58" t="s">
+      <c r="B58" t="s">
+        <v>259</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F58" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>47</v>
       </c>
-      <c r="J59" t="s">
+      <c r="B59" t="s">
+        <v>260</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F59" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>48</v>
       </c>
-      <c r="J60" t="s">
+      <c r="B60" t="s">
+        <v>261</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F60" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>49</v>
       </c>
-      <c r="J61" t="s">
+      <c r="B61" t="s">
+        <v>262</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F61" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>50</v>
       </c>
-      <c r="J62" t="s">
+      <c r="B62" t="s">
+        <v>263</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F62" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>51</v>
       </c>
-      <c r="J63" t="s">
+      <c r="B63" t="s">
+        <v>266</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F63" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>52</v>
       </c>
-      <c r="J64" t="s">
+      <c r="B64" t="s">
+        <v>265</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F64" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H64" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>53</v>
       </c>
-      <c r="J65" t="s">
+      <c r="B65" t="s">
+        <v>264</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F65" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H65" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>54</v>
       </c>
-      <c r="J66" t="s">
+      <c r="B66" t="s">
+        <v>267</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F66" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G66" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>55</v>
       </c>
-      <c r="J67" t="s">
+      <c r="B67" t="s">
+        <v>272</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F67" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G67" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H67" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>56</v>
       </c>
-      <c r="J68" t="s">
+      <c r="B68" t="s">
+        <v>270</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G68" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H68" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>57</v>
       </c>
-      <c r="J69" t="s">
+      <c r="E69" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G69" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H69" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>58</v>
       </c>
-      <c r="J70" t="s">
+      <c r="B70" t="s">
+        <v>269</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F70" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G70" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>59</v>
       </c>
-      <c r="J71" t="s">
+      <c r="B71" t="s">
+        <v>268</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G71" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H71" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>60</v>
       </c>
-      <c r="J72" t="s">
+      <c r="B72" t="s">
+        <v>274</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F72" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G72" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H72" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>61</v>
       </c>
-      <c r="J73" t="s">
+      <c r="B73" t="s">
+        <v>273</v>
+      </c>
+      <c r="F73" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G73" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H73" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>62</v>
       </c>
-      <c r="J74" t="s">
+      <c r="B74" t="s">
+        <v>275</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G74" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>63</v>
       </c>
-      <c r="J75" t="s">
+      <c r="B75" t="s">
+        <v>271</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F75" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G75" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H75" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>64</v>
       </c>
-      <c r="J76" t="s">
+      <c r="F76" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G76" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H76" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>65</v>
       </c>
-      <c r="J77" t="s">
+      <c r="F77" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G77" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H77" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F78" s="7"/>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>67</v>
       </c>
-      <c r="J79" t="s">
+      <c r="F79" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G79" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H79" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>68</v>
       </c>
-      <c r="J80" t="s">
+      <c r="F80" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G80" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H80" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>69</v>
       </c>
-      <c r="J81" t="s">
+      <c r="F81" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G81" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H81" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F82" s="7"/>
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>70</v>
       </c>
-      <c r="J83" t="s">
+      <c r="F83" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G83" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H83" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>71</v>
       </c>
-      <c r="J84" t="s">
+      <c r="F84" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G84" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H84" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>72</v>
       </c>
-      <c r="J85" t="s">
+      <c r="F85" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G85" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H85" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>73</v>
       </c>
-      <c r="J86" t="s">
+      <c r="F86" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G86" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H86" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>74</v>
       </c>
-      <c r="J87" t="s">
+      <c r="F87" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G87" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H87" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>75</v>
       </c>
-      <c r="J88" t="s">
+      <c r="F88" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G88" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H88" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>76</v>
       </c>
-      <c r="J89" t="s">
+      <c r="F89" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G89" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H89" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>77</v>
       </c>
-      <c r="J90" t="s">
+      <c r="F90" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G90" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H90" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F91" s="7"/>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>79</v>
       </c>
-      <c r="J92" t="s">
+      <c r="F92" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G92" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H92" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>80</v>
       </c>
-      <c r="J93" t="s">
+      <c r="F93" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G93" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H93" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>81</v>
       </c>
-      <c r="J94" t="s">
+      <c r="E94" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F94" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G94" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H94" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>82</v>
       </c>
-      <c r="J95" t="s">
+      <c r="F95" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G95" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H95" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>83</v>
       </c>
-      <c r="J96" t="s">
+      <c r="F96" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G96" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H96" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>84</v>
       </c>
-      <c r="J97" t="s">
+      <c r="F97" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G97" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H97" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>85</v>
       </c>
-      <c r="J98" t="s">
+      <c r="F98" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G98" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H98" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>86</v>
       </c>
-      <c r="J99" t="s">
+      <c r="F99" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G99" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H99" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>87</v>
       </c>
-      <c r="J100" t="s">
+      <c r="F100" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G100" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H100" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>88</v>
       </c>
-      <c r="J101" t="s">
+      <c r="F101" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G101" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>89</v>
       </c>
-      <c r="J102" t="s">
+      <c r="F102" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G102" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H102" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E103" t="s">
+        <v>372</v>
+      </c>
+      <c r="F103" s="7"/>
+      <c r="G103" s="9"/>
+    </row>
+    <row r="104" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F104" s="7"/>
+      <c r="G104" s="9"/>
+    </row>
+    <row r="105" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>92</v>
       </c>
-      <c r="J105" t="s">
+      <c r="F105" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="K105" s="3"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G105" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H105" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>93</v>
       </c>
-      <c r="J106" t="s">
+      <c r="F106" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G106" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H106" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>94</v>
       </c>
-      <c r="J107" t="s">
+      <c r="F107" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G107" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H107" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>95</v>
       </c>
-      <c r="J108" t="s">
+      <c r="F108" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G108" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H108" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>96</v>
       </c>
-      <c r="J109" t="s">
+      <c r="F109" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G109" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H109" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>97</v>
       </c>
-      <c r="J110" t="s">
+      <c r="F110" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G110" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H110" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>98</v>
       </c>
-      <c r="J111" t="s">
+      <c r="F111" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G111" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H111" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>99</v>
       </c>
-      <c r="J112" t="s">
+      <c r="F112" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G112" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H112" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>100</v>
       </c>
-      <c r="J113" t="s">
+      <c r="F113" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G113" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H113" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>101</v>
       </c>
-      <c r="J114" t="s">
+      <c r="F114" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G114" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H114" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>102</v>
       </c>
-      <c r="J115" t="s">
+      <c r="F115" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G115" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H115" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>103</v>
       </c>
-      <c r="J116" t="s">
+      <c r="F116" s="5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G116" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H116" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>104</v>
       </c>
-      <c r="J117" t="s">
+      <c r="F117" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G117" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H117" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>105</v>
       </c>
-      <c r="J118" t="s">
+      <c r="F118" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G118" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H118" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>106</v>
       </c>
-      <c r="E119" s="2"/>
-      <c r="J119" t="s">
+      <c r="E119" t="s">
+        <v>326</v>
+      </c>
+      <c r="F119" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G119" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H119" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>107</v>
       </c>
-      <c r="E120" s="2"/>
-      <c r="J120" t="s">
+      <c r="F120" s="5" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G120" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H120" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>108</v>
       </c>
-      <c r="J121" t="s">
+      <c r="F121" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G121" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H121" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>109</v>
       </c>
-      <c r="J122" t="s">
+      <c r="F122" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G122" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H122" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>110</v>
       </c>
-      <c r="J123" t="s">
+      <c r="B123" t="s">
+        <v>276</v>
+      </c>
+      <c r="E123" t="s">
+        <v>327</v>
+      </c>
+      <c r="F123" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G123" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H123" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>111</v>
       </c>
-      <c r="J124" t="s">
+      <c r="B124" t="s">
+        <v>277</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F124" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G124" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H124" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>112</v>
       </c>
-      <c r="J125" t="s">
+      <c r="B125" t="s">
+        <v>278</v>
+      </c>
+      <c r="E125" t="s">
+        <v>329</v>
+      </c>
+      <c r="F125" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G125" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H125" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>113</v>
       </c>
-      <c r="J126" t="s">
+      <c r="B126" t="s">
+        <v>279</v>
+      </c>
+      <c r="E126" t="s">
+        <v>330</v>
+      </c>
+      <c r="F126" s="5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G126" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H126" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>114</v>
       </c>
-      <c r="J127" t="s">
+      <c r="B127" t="s">
+        <v>280</v>
+      </c>
+      <c r="E127" t="s">
+        <v>331</v>
+      </c>
+      <c r="F127" s="5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G127" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H127" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>115</v>
       </c>
-      <c r="J128" t="s">
+      <c r="B128" t="s">
+        <v>281</v>
+      </c>
+      <c r="E128" t="s">
+        <v>332</v>
+      </c>
+      <c r="F128" s="5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G128" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H128" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>116</v>
       </c>
-      <c r="J129" t="s">
+      <c r="B129" t="s">
+        <v>282</v>
+      </c>
+      <c r="F129" s="5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G129" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H129" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>117</v>
       </c>
-      <c r="J130" t="s">
+      <c r="F130" s="5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G130" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H130" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>118</v>
       </c>
-      <c r="J131" t="s">
+      <c r="F131" s="5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G131" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H131" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>119</v>
       </c>
-      <c r="J132" t="s">
+      <c r="F132" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G132" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H132" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>120</v>
       </c>
-      <c r="J133" t="s">
+      <c r="F133" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G133" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H133" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>121</v>
       </c>
-      <c r="J134" t="s">
+      <c r="E134" t="s">
+        <v>286</v>
+      </c>
+      <c r="F134" s="5" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G134" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H134" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>122</v>
       </c>
-      <c r="J135" t="s">
+      <c r="E135" t="s">
+        <v>373</v>
+      </c>
+      <c r="F135" s="5" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G135" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H135" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>123</v>
       </c>
-      <c r="J136" t="s">
+      <c r="E136" t="s">
+        <v>374</v>
+      </c>
+      <c r="F136" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G136" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H136" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F137" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G137" s="11"/>
+    </row>
+    <row r="138" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>125</v>
       </c>
-      <c r="J138" t="s">
+      <c r="F138" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G138" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H138" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>126</v>
       </c>
-      <c r="J139" t="s">
+      <c r="B139" t="s">
+        <v>287</v>
+      </c>
+      <c r="E139" t="s">
+        <v>287</v>
+      </c>
+      <c r="F139" s="5" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G139" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H139" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>127</v>
       </c>
-      <c r="J140" t="s">
+      <c r="F140" s="5" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G140" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H140" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>128</v>
       </c>
-      <c r="J141" t="s">
+      <c r="F141" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G141" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H141" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>129</v>
       </c>
-      <c r="J142" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F142" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>130</v>
       </c>
-      <c r="J143" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F143" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="G143" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="H143" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>131</v>
       </c>
-      <c r="J144" t="s">
+      <c r="F144" s="5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G144" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H144" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>132</v>
       </c>
-      <c r="J145" t="s">
+      <c r="F145" s="5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G145" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H145" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>133</v>
       </c>
-      <c r="J146" t="s">
+      <c r="F146" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G146" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H146" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>134</v>
       </c>
-      <c r="J147" t="s">
+      <c r="F147" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G147" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H147" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>135</v>
       </c>
-      <c r="J148" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F148" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="H148" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>136</v>
       </c>
-      <c r="J149" t="s">
+      <c r="F149" s="5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G149" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H149" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>137</v>
       </c>
-      <c r="J150" t="s">
+      <c r="F150" s="5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G150" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H150" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>138</v>
       </c>
-      <c r="J151" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F151" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="G151" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="H151" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>139</v>
       </c>
-      <c r="J152" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F152" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="G152" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="H152" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>140</v>
       </c>
-      <c r="J153" t="s">
+      <c r="F153" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G153" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H153" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>141</v>
       </c>
-      <c r="J154" t="s">
+      <c r="F154" s="5" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G154" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="H154" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G155" s="9"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G156" s="9"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G157" s="9"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G158" s="9"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G159" s="9"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>147</v>
       </c>
+      <c r="G160" s="9"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
@@ -2606,7 +4361,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2615,7 +4369,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
